--- a/database/industries/felezat/faira/product/quarterly.xlsx
+++ b/database/industries/felezat/faira/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AB5AE-0C3A-4B1F-A717-11ED2B13BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>شمش بیلت</t>
   </si>
   <si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -117,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +291,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +303,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,17 +570,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -552,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -586,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -610,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -620,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -642,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -652,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -661,22 +699,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2242</v>
+        <v>9122</v>
       </c>
       <c r="F10" s="9">
-        <v>9122</v>
+        <v>5573</v>
       </c>
       <c r="G10" s="9">
-        <v>5573</v>
+        <v>5319</v>
       </c>
       <c r="H10" s="9">
-        <v>5319</v>
+        <v>7655</v>
       </c>
       <c r="I10" s="9">
-        <v>7655</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -685,22 +723,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>42254</v>
+        <v>33980</v>
       </c>
       <c r="F11" s="11">
-        <v>33980</v>
+        <v>37978</v>
       </c>
       <c r="G11" s="11">
-        <v>37978</v>
+        <v>38350</v>
       </c>
       <c r="H11" s="11">
-        <v>38350</v>
+        <v>36070</v>
       </c>
       <c r="I11" s="11">
-        <v>36070</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -709,22 +747,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="H12" s="9">
-        <v>1379</v>
+        <v>920</v>
       </c>
       <c r="I12" s="9">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -748,17 +786,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -770,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -794,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -818,29 +856,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>44597</v>
+        <v>43102</v>
       </c>
       <c r="F17" s="13">
-        <v>43102</v>
+        <v>43551</v>
       </c>
       <c r="G17" s="13">
-        <v>43551</v>
+        <v>45048</v>
       </c>
       <c r="H17" s="13">
-        <v>45048</v>
+        <v>44645</v>
       </c>
       <c r="I17" s="13">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -850,7 +888,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -860,7 +898,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -870,7 +908,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
@@ -892,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -902,7 +940,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -911,22 +949,22 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>1507</v>
-      </c>
-      <c r="F23" s="9">
         <v>9740</v>
       </c>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="9">
-        <v>4615</v>
+        <v>3867</v>
       </c>
       <c r="H23" s="9">
-        <v>3867</v>
+        <v>8389</v>
       </c>
       <c r="I23" s="9">
-        <v>8389</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
@@ -935,22 +973,22 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>36831</v>
-      </c>
-      <c r="F24" s="11">
         <v>33049</v>
       </c>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="11">
-        <v>31880</v>
+        <v>43311</v>
       </c>
       <c r="H24" s="11">
-        <v>43311</v>
+        <v>44031</v>
       </c>
       <c r="I24" s="11">
-        <v>44031</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41064</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -959,22 +997,22 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9">
-        <v>773</v>
-      </c>
-      <c r="F25" s="9">
         <v>39</v>
       </c>
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H25" s="9">
-        <v>49</v>
+        <v>1009</v>
       </c>
       <c r="I25" s="9">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
@@ -1046,14 +1084,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>0</v>
+      <c r="E29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>15</v>
@@ -1068,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1092,29 +1130,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>39111</v>
+        <v>42828</v>
       </c>
       <c r="F31" s="15">
-        <v>42828</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>36534</v>
+        <v>47227</v>
       </c>
       <c r="H31" s="15">
-        <v>47227</v>
+        <v>53429</v>
       </c>
       <c r="I31" s="15">
-        <v>53429</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1124,7 +1162,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1134,7 +1172,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1144,7 +1182,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -1166,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1176,7 +1214,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1185,22 +1223,22 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>939591</v>
-      </c>
-      <c r="F37" s="9">
         <v>6672816</v>
       </c>
+      <c r="F37" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G37" s="9">
-        <v>4112769</v>
+        <v>3338361</v>
       </c>
       <c r="H37" s="9">
-        <v>3338361</v>
+        <v>6584513</v>
       </c>
       <c r="I37" s="9">
-        <v>6584513</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2438616</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>12</v>
       </c>
@@ -1209,22 +1247,22 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>22008736</v>
-      </c>
-      <c r="F38" s="11">
         <v>22473259</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="11">
-        <v>23410187</v>
+        <v>32986471</v>
       </c>
       <c r="H38" s="11">
-        <v>32986471</v>
+        <v>32370516</v>
       </c>
       <c r="I38" s="11">
-        <v>32370516</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30711265</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1233,22 +1271,22 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>457717</v>
-      </c>
-      <c r="F39" s="9">
         <v>33898</v>
       </c>
+      <c r="F39" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="9">
-        <v>36142</v>
+        <v>55591</v>
       </c>
       <c r="H39" s="9">
-        <v>55591</v>
+        <v>811651</v>
       </c>
       <c r="I39" s="9">
-        <v>811651</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59278</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>23</v>
       </c>
@@ -1320,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>16</v>
       </c>
@@ -1328,8 +1366,8 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>0</v>
+      <c r="E43" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>15</v>
@@ -1344,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1368,29 +1406,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>23406044</v>
+        <v>29179973</v>
       </c>
       <c r="F45" s="15">
-        <v>29179973</v>
+        <v>0</v>
       </c>
       <c r="G45" s="15">
-        <v>27559098</v>
+        <v>36380423</v>
       </c>
       <c r="H45" s="15">
-        <v>36380423</v>
+        <v>39766680</v>
       </c>
       <c r="I45" s="15">
-        <v>39766680</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33209159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1400,7 +1438,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1410,7 +1448,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1420,7 +1458,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1452,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1461,22 +1499,22 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>3531936170</v>
+        <v>685094045</v>
       </c>
       <c r="F51" s="9">
-        <v>685094045</v>
+        <v>891174215</v>
       </c>
       <c r="G51" s="9">
-        <v>891174215</v>
+        <v>863294802</v>
       </c>
       <c r="H51" s="9">
-        <v>863294802</v>
+        <v>784898438</v>
       </c>
       <c r="I51" s="9">
-        <v>784898438</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>763021277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
@@ -1485,22 +1523,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>594978611</v>
+        <v>679998154</v>
       </c>
       <c r="F52" s="11">
-        <v>679998154</v>
+        <v>734322051</v>
       </c>
       <c r="G52" s="11">
-        <v>734322051</v>
+        <v>761618780</v>
       </c>
       <c r="H52" s="11">
-        <v>761618780</v>
+        <v>735175581</v>
       </c>
       <c r="I52" s="11">
-        <v>735175581</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747887809</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1509,22 +1547,22 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>592130660</v>
+        <v>869179487</v>
       </c>
       <c r="F53" s="9">
-        <v>869179487</v>
+        <v>926717949</v>
       </c>
       <c r="G53" s="9">
-        <v>926717949</v>
+        <v>1134510204</v>
       </c>
       <c r="H53" s="9">
-        <v>1134510204</v>
+        <v>804411298</v>
       </c>
       <c r="I53" s="9">
-        <v>804411298</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>790373333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>21</v>
       </c>
@@ -1572,7 +1610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>23</v>
       </c>
@@ -1596,12 +1634,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
@@ -1620,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
@@ -1644,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1654,7 +1692,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1664,7 +1702,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1674,9 +1712,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1696,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1706,7 +1744,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1715,22 +1753,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-186455</v>
+        <v>-4332581</v>
       </c>
       <c r="F64" s="9">
-        <v>-4332581</v>
+        <v>-2300900</v>
       </c>
       <c r="G64" s="9">
-        <v>-2300900</v>
+        <v>-2083480</v>
       </c>
       <c r="H64" s="9">
-        <v>-2083480</v>
+        <v>-5624171</v>
       </c>
       <c r="I64" s="9">
-        <v>-5624171</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2103324</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>12</v>
       </c>
@@ -1739,22 +1777,22 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>-15227584</v>
+        <v>-15666240</v>
       </c>
       <c r="F65" s="11">
-        <v>-15666240</v>
+        <v>-16548537</v>
       </c>
       <c r="G65" s="11">
-        <v>-16548537</v>
+        <v>-22362326</v>
       </c>
       <c r="H65" s="11">
-        <v>-22362326</v>
+        <v>-27866678</v>
       </c>
       <c r="I65" s="11">
-        <v>-27866678</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-25411084</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1763,22 +1801,22 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-175531</v>
+        <v>-17510</v>
       </c>
       <c r="F66" s="9">
-        <v>-17510</v>
+        <v>-19940</v>
       </c>
       <c r="G66" s="9">
-        <v>-19940</v>
+        <v>-28350</v>
       </c>
       <c r="H66" s="9">
-        <v>-28350</v>
+        <v>-662689</v>
       </c>
       <c r="I66" s="9">
-        <v>-662689</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-45470</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
@@ -1826,7 +1864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -1834,11 +1872,11 @@
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>15</v>
+      <c r="E69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
       </c>
       <c r="G69" s="11">
         <v>0</v>
@@ -1850,29 +1888,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>-15589570</v>
+        <v>-20016331</v>
       </c>
       <c r="F70" s="15">
-        <v>-20016331</v>
+        <v>-18869377</v>
       </c>
       <c r="G70" s="15">
-        <v>-18869377</v>
+        <v>-24474156</v>
       </c>
       <c r="H70" s="15">
-        <v>-24474156</v>
+        <v>-34153538</v>
       </c>
       <c r="I70" s="15">
-        <v>-34153538</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-27559878</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1882,7 +1920,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1892,7 +1930,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1902,9 +1940,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -1924,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1934,7 +1972,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
@@ -1943,22 +1981,22 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>-20454</v>
+        <v>2340235</v>
       </c>
       <c r="F76" s="9">
-        <v>2340235</v>
+        <v>1811869</v>
       </c>
       <c r="G76" s="9">
-        <v>1811869</v>
+        <v>1254881</v>
       </c>
       <c r="H76" s="9">
-        <v>1254881</v>
+        <v>960342</v>
       </c>
       <c r="I76" s="9">
-        <v>960342</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>335292</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>12</v>
       </c>
@@ -1967,22 +2005,22 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>7554742</v>
+        <v>6807019</v>
       </c>
       <c r="F77" s="11">
-        <v>6807019</v>
+        <v>6861650</v>
       </c>
       <c r="G77" s="11">
-        <v>6861650</v>
+        <v>10624145</v>
       </c>
       <c r="H77" s="11">
-        <v>10624145</v>
+        <v>4503838</v>
       </c>
       <c r="I77" s="11">
-        <v>4503838</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5300181</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
@@ -1991,22 +2029,22 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>282186</v>
+        <v>16388</v>
       </c>
       <c r="F78" s="9">
-        <v>16388</v>
+        <v>16202</v>
       </c>
       <c r="G78" s="9">
-        <v>16202</v>
+        <v>27241</v>
       </c>
       <c r="H78" s="9">
-        <v>27241</v>
+        <v>148962</v>
       </c>
       <c r="I78" s="9">
-        <v>148962</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13808</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>14</v>
       </c>
@@ -2030,7 +2068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -2062,11 +2100,11 @@
         <v>25</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>15</v>
+      <c r="E81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
@@ -2078,26 +2116,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>7816474</v>
+        <v>9163642</v>
       </c>
       <c r="F82" s="15">
-        <v>9163642</v>
+        <v>8689721</v>
       </c>
       <c r="G82" s="15">
-        <v>8689721</v>
+        <v>11906267</v>
       </c>
       <c r="H82" s="15">
-        <v>11906267</v>
+        <v>5613142</v>
       </c>
       <c r="I82" s="15">
-        <v>5613142</v>
+        <v>5649281</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/faira/product/quarterly.xlsx
+++ b/database/industries/felezat/faira/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AB5AE-0C3A-4B1F-A717-11ED2B13BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03E4CF-5A37-4713-936D-0AEAC1162373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="37">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -571,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I82"/>
+  <dimension ref="B1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -589,8 +604,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,8 +621,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,8 +638,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -623,8 +653,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -635,8 +670,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -647,8 +687,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -657,8 +702,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -679,8 +729,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -689,196 +754,321 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1135</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1599</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-1066</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1554</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2242</v>
+      </c>
+      <c r="J10" s="9">
         <v>9122</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>5573</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>5319</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>7655</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2484</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>17773</v>
+      </c>
+      <c r="F11" s="11">
+        <v>109678</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5152</v>
+      </c>
+      <c r="H11" s="11">
+        <v>43874</v>
+      </c>
+      <c r="I11" s="11">
+        <v>42254</v>
+      </c>
+      <c r="J11" s="11">
         <v>33980</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>37978</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>38350</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>36070</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>41788</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>7167</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="G12" s="9">
+        <v>351</v>
+      </c>
+      <c r="H12" s="9">
+        <v>207</v>
+      </c>
+      <c r="I12" s="9">
+        <v>101</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>1379</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>920</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
+      <c r="E13" s="11">
+        <v>20800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>46875</v>
+      </c>
+      <c r="F17" s="13">
+        <v>111774</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4437</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45635</v>
+      </c>
+      <c r="I17" s="13">
+        <v>44597</v>
+      </c>
+      <c r="J17" s="13">
         <v>43102</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K17" s="13">
         <v>43551</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L17" s="13">
         <v>45048</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>44645</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>44272</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -887,8 +1077,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -897,8 +1092,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -907,10 +1107,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -929,8 +1134,23 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -939,220 +1159,360 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
+        <v>3915</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2656</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1615</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2569</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1507</v>
+      </c>
+      <c r="J23" s="9">
         <v>9740</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="K23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9">
         <v>3867</v>
       </c>
-      <c r="H23" s="9">
+      <c r="M23" s="9">
         <v>8389</v>
       </c>
-      <c r="I23" s="9">
+      <c r="N23" s="9">
         <v>3196</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
+        <v>22102</v>
+      </c>
+      <c r="F24" s="11">
+        <v>31347</v>
+      </c>
+      <c r="G24" s="11">
+        <v>43090</v>
+      </c>
+      <c r="H24" s="11">
+        <v>43427</v>
+      </c>
+      <c r="I24" s="11">
+        <v>36831</v>
+      </c>
+      <c r="J24" s="11">
         <v>33049</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="K24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="11">
         <v>43311</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M24" s="11">
         <v>44031</v>
       </c>
-      <c r="I24" s="11">
+      <c r="N24" s="11">
         <v>41064</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9">
+        <v>6933</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1616</v>
+      </c>
+      <c r="G25" s="9">
+        <v>395</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1094</v>
+      </c>
+      <c r="I25" s="9">
+        <v>773</v>
+      </c>
+      <c r="J25" s="9">
         <v>39</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="K25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="9">
         <v>49</v>
       </c>
-      <c r="H25" s="9">
+      <c r="M25" s="9">
         <v>1009</v>
       </c>
-      <c r="I25" s="9">
+      <c r="N25" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
+      <c r="E26" s="11">
+        <v>20800</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>15</v>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>15</v>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
+      <c r="H29" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>53750</v>
+      </c>
+      <c r="F31" s="15">
+        <v>35619</v>
+      </c>
+      <c r="G31" s="15">
+        <v>45100</v>
+      </c>
+      <c r="H31" s="15">
+        <v>47090</v>
+      </c>
+      <c r="I31" s="15">
+        <v>39111</v>
+      </c>
+      <c r="J31" s="15">
         <v>42828</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <v>47227</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>53429</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>44335</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1161,8 +1521,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1171,8 +1536,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1181,10 +1551,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1203,8 +1578,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1213,222 +1603,362 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>1445922</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1200115</v>
+      </c>
+      <c r="G37" s="9">
+        <v>853035</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1396928</v>
+      </c>
+      <c r="I37" s="9">
+        <v>939591</v>
+      </c>
+      <c r="J37" s="9">
         <v>6672816</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="K37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="9">
         <v>3338361</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>6584513</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>2438616</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>7870671</v>
+      </c>
+      <c r="F38" s="11">
+        <v>15121537</v>
+      </c>
+      <c r="G38" s="11">
+        <v>21670172</v>
+      </c>
+      <c r="H38" s="11">
+        <v>22506077</v>
+      </c>
+      <c r="I38" s="11">
+        <v>22008736</v>
+      </c>
+      <c r="J38" s="11">
         <v>22473259</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="11">
         <v>32986471</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>32370516</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>30711265</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>2732271</v>
+      </c>
+      <c r="F39" s="9">
+        <v>775203</v>
+      </c>
+      <c r="G39" s="9">
+        <v>209768</v>
+      </c>
+      <c r="H39" s="9">
+        <v>644786</v>
+      </c>
+      <c r="I39" s="9">
+        <v>457717</v>
+      </c>
+      <c r="J39" s="9">
         <v>33898</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="K39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="9">
         <v>55591</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>811651</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>59278</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>15</v>
+      <c r="E40" s="11">
+        <v>6843812</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>15</v>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>15</v>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="9">
-        <v>0</v>
+      <c r="H43" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>18892676</v>
+      </c>
+      <c r="F45" s="15">
+        <v>17096855</v>
+      </c>
+      <c r="G45" s="15">
+        <v>22732975</v>
+      </c>
+      <c r="H45" s="15">
+        <v>24547791</v>
+      </c>
+      <c r="I45" s="15">
+        <v>23406044</v>
+      </c>
+      <c r="J45" s="15">
         <v>29179973</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
         <v>36380423</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>39766680</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N45" s="15">
         <v>33209159</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1437,8 +1967,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1447,8 +1982,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1457,10 +1997,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1479,8 +2024,23 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1489,200 +2049,325 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>369328736</v>
+      </c>
+      <c r="F51" s="9">
+        <v>451850527</v>
+      </c>
+      <c r="G51" s="9">
+        <v>528195046</v>
+      </c>
+      <c r="H51" s="9">
+        <v>543763332</v>
+      </c>
+      <c r="I51" s="9">
+        <v>3531936170</v>
+      </c>
+      <c r="J51" s="9">
         <v>685094045</v>
       </c>
-      <c r="F51" s="9">
+      <c r="K51" s="9">
         <v>891174215</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>863294802</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>784898438</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>763021277</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>336004448</v>
+      </c>
+      <c r="F52" s="11">
+        <v>406979148</v>
+      </c>
+      <c r="G52" s="11">
+        <v>445960791</v>
+      </c>
+      <c r="H52" s="11">
+        <v>518250789</v>
+      </c>
+      <c r="I52" s="11">
+        <v>594978611</v>
+      </c>
+      <c r="J52" s="11">
         <v>679998154</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>734322051</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>761618780</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>735175581</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>747887809</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>394096495</v>
+      </c>
+      <c r="F53" s="9">
+        <v>479704827</v>
+      </c>
+      <c r="G53" s="9">
+        <v>531058228</v>
+      </c>
+      <c r="H53" s="9">
+        <v>589383912</v>
+      </c>
+      <c r="I53" s="9">
+        <v>592130660</v>
+      </c>
+      <c r="J53" s="9">
         <v>869179487</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>926717949</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>1134510204</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>804411298</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>790373333</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>15</v>
+      <c r="E54" s="11">
+        <v>329029423</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1691,8 +2376,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1701,8 +2391,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1711,10 +2406,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1733,8 +2433,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1743,137 +2458,217 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>-828448</v>
+      </c>
+      <c r="F64" s="9">
+        <v>-1019868</v>
+      </c>
+      <c r="G64" s="9">
+        <v>-341794</v>
+      </c>
+      <c r="H64" s="9">
+        <v>-864486</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-186455</v>
+      </c>
+      <c r="J64" s="9">
         <v>-4332581</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>-2300900</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>-2083480</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>-5624171</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>-2103324</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>-5671683</v>
+      </c>
+      <c r="F65" s="11">
+        <v>-14173655</v>
+      </c>
+      <c r="G65" s="11">
+        <v>-12189098</v>
+      </c>
+      <c r="H65" s="11">
+        <v>-14045440</v>
+      </c>
+      <c r="I65" s="11">
+        <v>-15227584</v>
+      </c>
+      <c r="J65" s="11">
         <v>-15666240</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>-16548537</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>-22362326</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>-27866678</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>-25411084</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>-1430260</v>
+      </c>
+      <c r="F66" s="9">
+        <v>-539997</v>
+      </c>
+      <c r="G66" s="9">
+        <v>-147279</v>
+      </c>
+      <c r="H66" s="9">
+        <v>-213484</v>
+      </c>
+      <c r="I66" s="9">
+        <v>-175531</v>
+      </c>
+      <c r="J66" s="9">
         <v>-17510</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>-19940</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>-28350</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>-662689</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>-45470</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>15</v>
+      <c r="E67" s="11">
+        <v>-4303316</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>15</v>
+      <c r="E69" s="11">
+        <v>0</v>
       </c>
       <c r="F69" s="11">
         <v>0</v>
@@ -1881,36 +2676,66 @@
       <c r="G69" s="11">
         <v>0</v>
       </c>
-      <c r="H69" s="11">
-        <v>0</v>
+      <c r="H69" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I69" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
+        <v>-12233707</v>
+      </c>
+      <c r="F70" s="15">
+        <v>-15733520</v>
+      </c>
+      <c r="G70" s="15">
+        <v>-12678171</v>
+      </c>
+      <c r="H70" s="15">
+        <v>-15123410</v>
+      </c>
+      <c r="I70" s="15">
+        <v>-15589570</v>
+      </c>
+      <c r="J70" s="15">
         <v>-20016331</v>
       </c>
-      <c r="F70" s="15">
+      <c r="K70" s="15">
         <v>-18869377</v>
       </c>
-      <c r="G70" s="15">
+      <c r="L70" s="15">
         <v>-24474156</v>
       </c>
-      <c r="H70" s="15">
+      <c r="M70" s="15">
         <v>-34153538</v>
       </c>
-      <c r="I70" s="15">
+      <c r="N70" s="15">
         <v>-27559878</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1919,8 +2744,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1929,8 +2759,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1939,10 +2774,15 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -1961,8 +2801,23 @@
       <c r="I74" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1971,137 +2826,217 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>617474</v>
+      </c>
+      <c r="F76" s="9">
+        <v>180247</v>
+      </c>
+      <c r="G76" s="9">
+        <v>511241</v>
+      </c>
+      <c r="H76" s="9">
+        <v>532442</v>
+      </c>
+      <c r="I76" s="9">
+        <v>-20454</v>
+      </c>
+      <c r="J76" s="9">
         <v>2340235</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>1811869</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>1254881</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>960342</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>335292</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>3166914</v>
+      </c>
+      <c r="F77" s="11">
+        <v>8759620</v>
+      </c>
+      <c r="G77" s="11">
+        <v>9481074</v>
+      </c>
+      <c r="H77" s="11">
+        <v>8460637</v>
+      </c>
+      <c r="I77" s="11">
+        <v>7554742</v>
+      </c>
+      <c r="J77" s="11">
         <v>6807019</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>6861650</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>10624145</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>4503838</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>5300181</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>1302011</v>
+      </c>
+      <c r="F78" s="9">
+        <v>235206</v>
+      </c>
+      <c r="G78" s="9">
+        <v>62489</v>
+      </c>
+      <c r="H78" s="9">
+        <v>431302</v>
+      </c>
+      <c r="I78" s="9">
+        <v>282186</v>
+      </c>
+      <c r="J78" s="9">
         <v>16388</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>16202</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>27241</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>148962</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>13808</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>15</v>
+      <c r="E79" s="11">
+        <v>2540496</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>15</v>
+      <c r="E81" s="11">
+        <v>0</v>
       </c>
       <c r="F81" s="11">
         <v>0</v>
@@ -2109,32 +3044,62 @@
       <c r="G81" s="11">
         <v>0</v>
       </c>
-      <c r="H81" s="11">
-        <v>0</v>
+      <c r="H81" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I81" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>7626895</v>
+      </c>
+      <c r="F82" s="15">
+        <v>9175073</v>
+      </c>
+      <c r="G82" s="15">
+        <v>10054804</v>
+      </c>
+      <c r="H82" s="15">
+        <v>9424381</v>
+      </c>
+      <c r="I82" s="15">
+        <v>7816474</v>
+      </c>
+      <c r="J82" s="15">
         <v>9163642</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K82" s="15">
         <v>8689721</v>
       </c>
-      <c r="G82" s="15">
+      <c r="L82" s="15">
         <v>11906267</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M82" s="15">
         <v>5613142</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N82" s="15">
         <v>5649281</v>
       </c>
     </row>

--- a/database/industries/felezat/faira/product/quarterly.xlsx
+++ b/database/industries/felezat/faira/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03E4CF-5A37-4713-936D-0AEAC1162373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35FA2B-DB5E-448D-AC36-924E6C80C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,7 +610,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -659,7 +659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -799,7 +799,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -838,7 +838,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -992,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1165,7 +1165,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1542,7 +1542,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1557,7 +1557,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1609,7 +1609,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>2438616</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>30711265</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>59278</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>26</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>33209159</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1973,7 +1973,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1988,7 +1988,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2003,7 +2003,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>31</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2055,7 +2055,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>763021277</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>17</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>747887809</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>790373333</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>19</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>28</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2397,7 +2397,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>15</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>-2103324</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>-25411084</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>-45470</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>26</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>24</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>-27559878</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2750,7 +2750,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2765,7 +2765,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2780,7 +2780,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>36</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>335292</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>5300181</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>18</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>13808</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>26</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>24</v>
       </c>
